--- a/---每日工作记录.xlsx
+++ b/---每日工作记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF56CC0-5F9B-4373-8AC0-BAC475F1BED1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C093035F-495B-429D-8B14-381F91DF6AB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/---每日工作记录.xlsx
+++ b/---每日工作记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C093035F-495B-429D-8B14-381F91DF6AB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D85E41F-1CD1-43AA-94ED-497B8D7DD01A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/---每日工作记录.xlsx
+++ b/---每日工作记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D85E41F-1CD1-43AA-94ED-497B8D7DD01A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D0B69D-282F-4BB0-AC1B-EA04BA4187FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/---每日工作记录.xlsx
+++ b/---每日工作记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D0B69D-282F-4BB0-AC1B-EA04BA4187FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBF7EDF-6E2A-4FDA-89D3-BADB5D07A7F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,7 +202,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pteam78退回到审批之前按钮bug分析；</t>
+    <t>pteam78退回到审批之前按钮bug分析；1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
